--- a/color.xlsx
+++ b/color.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6431EC-3590-4B93-9C8B-95EBAA135ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1AD97A-80C9-42DE-BEF9-13B80561A3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{45A93460-AF7B-4A59-9BB4-6358E8824A66}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="177">
   <si>
     <t>#D5E3D4 / 213,227,212</t>
   </si>
@@ -636,6 +636,72 @@
   <si>
     <t>普魯士藍 x 櫨色</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林晨曦 (Olive &amp; Moss)</t>
+  </si>
+  <si>
+    <t>#506736</t>
+  </si>
+  <si>
+    <t>#91A263</t>
+  </si>
+  <si>
+    <t>自然橄欖與苔蘚的柔和過渡</t>
+  </si>
+  <si>
+    <t>寒地松林 (Pine &amp; Bone)</t>
+  </si>
+  <si>
+    <t>#2C341B</t>
+  </si>
+  <si>
+    <t>#DDDFC2</t>
+  </si>
+  <si>
+    <t>沉穩松針與骨色的冷調質感</t>
+  </si>
+  <si>
+    <t>復古大地 (Mustard &amp; Camel)</t>
+  </si>
+  <si>
+    <t>#756633</t>
+  </si>
+  <si>
+    <t>#BC9E5F</t>
+  </si>
+  <si>
+    <t>芥末綠與駝色的復古大地感</t>
+  </si>
+  <si>
+    <t>迷彩灰綠 (Feldgrau &amp; Bud)</t>
+  </si>
+  <si>
+    <t>#396153</t>
+  </si>
+  <si>
+    <t>#E4E8B8</t>
+  </si>
+  <si>
+    <t>軍事風格與淡色春芽的撞色</t>
+  </si>
+  <si>
+    <t>深空月石 (Sparkle &amp; Moonstone)</t>
+  </si>
+  <si>
+    <t>#406768</t>
+  </si>
+  <si>
+    <t>#6FA9BB</t>
+  </si>
+  <si>
+    <t>深邃藍綠與月石色的冷冽星空</t>
+  </si>
+  <si>
+    <t>經典商務 (Prussian &amp; Rhus)</t>
+  </si>
+  <si>
+    <t>櫨色與深藍的經典沉穩配比</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1469,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1570,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0961201-07C9-4DED-B4F9-5355DBB053F3}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1679,8 +1745,93 @@
         <v>139</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="83.25" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="83.25" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="83.25" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="83.25" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="99.75" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="83.25" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/color.xlsx
+++ b/color.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1AD97A-80C9-42DE-BEF9-13B80561A3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E333BEA2-D3EA-4331-891E-AD44806A9DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{45A93460-AF7B-4A59-9BB4-6358E8824A66}"/>
   </bookViews>
@@ -1638,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0961201-07C9-4DED-B4F9-5355DBB053F3}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/color.xlsx
+++ b/color.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E333BEA2-D3EA-4331-891E-AD44806A9DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321816B4-C7FC-4B5B-9CAE-9103FF3E12E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{45A93460-AF7B-4A59-9BB4-6358E8824A66}"/>
   </bookViews>
@@ -638,9 +638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>森林晨曦 (Olive &amp; Moss)</t>
-  </si>
-  <si>
     <t>#506736</t>
   </si>
   <si>
@@ -650,9 +647,6 @@
     <t>自然橄欖與苔蘚的柔和過渡</t>
   </si>
   <si>
-    <t>寒地松林 (Pine &amp; Bone)</t>
-  </si>
-  <si>
     <t>#2C341B</t>
   </si>
   <si>
@@ -662,9 +656,6 @@
     <t>沉穩松針與骨色的冷調質感</t>
   </si>
   <si>
-    <t>復古大地 (Mustard &amp; Camel)</t>
-  </si>
-  <si>
     <t>#756633</t>
   </si>
   <si>
@@ -674,9 +665,6 @@
     <t>芥末綠與駝色的復古大地感</t>
   </si>
   <si>
-    <t>迷彩灰綠 (Feldgrau &amp; Bud)</t>
-  </si>
-  <si>
     <t>#396153</t>
   </si>
   <si>
@@ -686,9 +674,6 @@
     <t>軍事風格與淡色春芽的撞色</t>
   </si>
   <si>
-    <t>深空月石 (Sparkle &amp; Moonstone)</t>
-  </si>
-  <si>
     <t>#406768</t>
   </si>
   <si>
@@ -698,10 +683,31 @@
     <t>深邃藍綠與月石色的冷冽星空</t>
   </si>
   <si>
-    <t>經典商務 (Prussian &amp; Rhus)</t>
-  </si>
-  <si>
     <t>櫨色與深藍的經典沉穩配比</t>
+  </si>
+  <si>
+    <t>經典商務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深空月石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">迷彩灰綠 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">復古大地 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">寒地松林 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">森林晨曦 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1638,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0961201-07C9-4DED-B4F9-5355DBB053F3}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1745,79 +1751,79 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="83.25" thickBot="1">
+    <row r="8" spans="1:4" ht="66.75" thickBot="1">
       <c r="A8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="66.75" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="83.25" thickBot="1">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="66.75" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="83.25" thickBot="1">
-      <c r="A10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="66.75" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="83.25" thickBot="1">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:4" ht="83.25" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="99.75" thickBot="1">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="66.75" thickBot="1">
+      <c r="A13" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="83.25" thickBot="1">
-      <c r="A13" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>86</v>
@@ -1826,7 +1832,7 @@
         <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/color.xlsx
+++ b/color.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321816B4-C7FC-4B5B-9CAE-9103FF3E12E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE129EA6-85FD-4F98-BDE2-74C3E2511893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{45A93460-AF7B-4A59-9BB4-6358E8824A66}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="175">
   <si>
     <t>#D5E3D4 / 213,227,212</t>
   </si>
@@ -681,13 +681,6 @@
   </si>
   <si>
     <t>深邃藍綠與月石色的冷冽星空</t>
-  </si>
-  <si>
-    <t>櫨色與深藍的經典沉穩配比</t>
-  </si>
-  <si>
-    <t>經典商務</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>深空月石</t>
@@ -1642,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0961201-07C9-4DED-B4F9-5355DBB053F3}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1753,7 +1746,7 @@
     </row>
     <row r="8" spans="1:4" ht="66.75" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>155</v>
@@ -1767,7 +1760,7 @@
     </row>
     <row r="9" spans="1:4" ht="66.75" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>158</v>
@@ -1781,7 +1774,7 @@
     </row>
     <row r="10" spans="1:4" ht="66.75" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>161</v>
@@ -1795,7 +1788,7 @@
     </row>
     <row r="11" spans="1:4" ht="66.75" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>164</v>
@@ -1809,7 +1802,7 @@
     </row>
     <row r="12" spans="1:4" ht="83.25" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>167</v>
@@ -1819,20 +1812,6 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="66.75" thickBot="1">
-      <c r="A13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
